--- a/cleaned_data.xlsx
+++ b/cleaned_data.xlsx
@@ -1404,7 +1404,7 @@
         <v>3</v>
       </c>
       <c r="CV2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="CW2">
         <v>0</v>
@@ -1553,13 +1553,13 @@
         <v>5</v>
       </c>
       <c r="AA3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AB3">
         <v>5</v>
       </c>
       <c r="AC3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AD3">
         <v>2</v>
@@ -1619,7 +1619,7 @@
         <v>6</v>
       </c>
       <c r="AW3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AX3">
         <v>0</v>
@@ -1772,7 +1772,7 @@
         <v>4</v>
       </c>
       <c r="CV3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="CW3">
         <v>1</v>
@@ -1921,7 +1921,7 @@
         <v>3</v>
       </c>
       <c r="AC4">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AD4">
         <v>2</v>
@@ -1981,7 +1981,7 @@
         <v>5</v>
       </c>
       <c r="AW4">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AX4">
         <v>1</v>
@@ -2277,13 +2277,13 @@
         <v>6</v>
       </c>
       <c r="AA5">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AB5">
         <v>4</v>
       </c>
       <c r="AC5">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="AD5">
         <v>2</v>
@@ -2639,13 +2639,13 @@
         <v>4</v>
       </c>
       <c r="AA6">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AB6">
         <v>4</v>
       </c>
       <c r="AC6">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="AD6">
         <v>5</v>
@@ -2998,13 +2998,13 @@
         <v>6</v>
       </c>
       <c r="AA7">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AB7">
         <v>3</v>
       </c>
       <c r="AC7">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AD7">
         <v>3</v>
@@ -3351,13 +3351,13 @@
         <v>5</v>
       </c>
       <c r="AA8">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AB8">
         <v>1</v>
       </c>
       <c r="AC8">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="AD8">
         <v>5</v>
@@ -3570,7 +3570,7 @@
         <v>2</v>
       </c>
       <c r="CV8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="CW8">
         <v>1</v>
@@ -3713,13 +3713,13 @@
         <v>5</v>
       </c>
       <c r="AA9">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AB9">
         <v>5</v>
       </c>
       <c r="AC9">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AD9">
         <v>6</v>
@@ -4078,13 +4078,13 @@
         <v>7</v>
       </c>
       <c r="AA10">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="AB10">
         <v>5</v>
       </c>
       <c r="AC10">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="AD10">
         <v>1</v>
@@ -4297,7 +4297,7 @@
         <v>3</v>
       </c>
       <c r="CV10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="CW10">
         <v>1</v>
@@ -4446,13 +4446,13 @@
         <v>7</v>
       </c>
       <c r="AA11">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AB11">
         <v>7</v>
       </c>
       <c r="AC11">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AD11">
         <v>3</v>
@@ -4808,7 +4808,7 @@
         <v>5</v>
       </c>
       <c r="AA12">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AB12">
         <v>5</v>
@@ -5027,7 +5027,7 @@
         <v>3</v>
       </c>
       <c r="CV12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="CW12">
         <v>1</v>
@@ -5173,13 +5173,13 @@
         <v>6</v>
       </c>
       <c r="AA13">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AB13">
         <v>4</v>
       </c>
       <c r="AC13">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="AD13">
         <v>2</v>
@@ -5239,7 +5239,7 @@
         <v>7</v>
       </c>
       <c r="AW13">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AX13">
         <v>0</v>
@@ -5544,7 +5544,7 @@
         <v>5</v>
       </c>
       <c r="AC14">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AD14">
         <v>6</v>
@@ -5757,7 +5757,7 @@
         <v>2</v>
       </c>
       <c r="CV14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="CW14">
         <v>1</v>
@@ -5903,7 +5903,7 @@
         <v>6</v>
       </c>
       <c r="AA15">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="AB15">
         <v>3</v>
@@ -5969,7 +5969,7 @@
         <v>5</v>
       </c>
       <c r="AW15">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AX15">
         <v>0</v>
@@ -6122,7 +6122,7 @@
         <v>4</v>
       </c>
       <c r="CV15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="CW15">
         <v>1</v>
@@ -6265,13 +6265,13 @@
         <v>5</v>
       </c>
       <c r="AA16">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="AB16">
         <v>1</v>
       </c>
       <c r="AC16">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="AD16">
         <v>2</v>
@@ -6331,7 +6331,7 @@
         <v>5</v>
       </c>
       <c r="AW16">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="AX16">
         <v>1</v>
@@ -6484,7 +6484,7 @@
         <v>5</v>
       </c>
       <c r="CV16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="CW16">
         <v>1</v>
@@ -6633,7 +6633,7 @@
         <v>6</v>
       </c>
       <c r="AA17">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AB17">
         <v>7</v>
@@ -7001,13 +7001,13 @@
         <v>6</v>
       </c>
       <c r="AA18">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AB18">
         <v>6</v>
       </c>
       <c r="AC18">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="AD18">
         <v>1</v>
@@ -7220,7 +7220,7 @@
         <v>4</v>
       </c>
       <c r="CV18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="CW18">
         <v>1</v>
@@ -7369,13 +7369,13 @@
         <v>5</v>
       </c>
       <c r="AA19">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="AB19">
         <v>4</v>
       </c>
       <c r="AC19">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="AD19">
         <v>6</v>
@@ -7435,7 +7435,7 @@
         <v>3</v>
       </c>
       <c r="AW19">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AX19">
         <v>0</v>
@@ -7588,7 +7588,7 @@
         <v>3</v>
       </c>
       <c r="CV19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="CW19">
         <v>1</v>
@@ -7737,7 +7737,7 @@
         <v>7</v>
       </c>
       <c r="AA20">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AB20">
         <v>5</v>
@@ -7803,7 +7803,7 @@
         <v>5</v>
       </c>
       <c r="AW20">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AX20">
         <v>1</v>
@@ -7956,7 +7956,7 @@
         <v>4</v>
       </c>
       <c r="CV20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="CW20">
         <v>1</v>
@@ -8324,7 +8324,7 @@
         <v>3</v>
       </c>
       <c r="CV21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="CW21">
         <v>1</v>
@@ -8470,13 +8470,13 @@
         <v>5</v>
       </c>
       <c r="AA22">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AB22">
         <v>6</v>
       </c>
       <c r="AC22">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="AD22">
         <v>1</v>
@@ -8838,7 +8838,7 @@
         <v>7</v>
       </c>
       <c r="AA23">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AB23">
         <v>4</v>
@@ -9203,13 +9203,13 @@
         <v>2</v>
       </c>
       <c r="AA24">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AB24">
         <v>2</v>
       </c>
       <c r="AC24">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AD24">
         <v>5</v>
@@ -9269,7 +9269,7 @@
         <v>6</v>
       </c>
       <c r="AW24">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AX24">
         <v>0</v>
@@ -9422,7 +9422,7 @@
         <v>3</v>
       </c>
       <c r="CV24">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="CW24">
         <v>0</v>
@@ -9565,13 +9565,13 @@
         <v>2</v>
       </c>
       <c r="AA25">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AB25">
         <v>5</v>
       </c>
       <c r="AC25">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="AD25">
         <v>5</v>
@@ -9631,7 +9631,7 @@
         <v>3</v>
       </c>
       <c r="AW25">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AX25">
         <v>1</v>
@@ -9933,7 +9933,7 @@
         <v>3</v>
       </c>
       <c r="AA26">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AB26">
         <v>7</v>
@@ -10301,7 +10301,7 @@
         <v>5</v>
       </c>
       <c r="AC27">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AD27">
         <v>6</v>
@@ -10361,7 +10361,7 @@
         <v>4</v>
       </c>
       <c r="AW27">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="AX27">
         <v>1</v>
@@ -10514,7 +10514,7 @@
         <v>3</v>
       </c>
       <c r="CV27">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="CW27">
         <v>1</v>
@@ -10669,7 +10669,7 @@
         <v>5</v>
       </c>
       <c r="AC28">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AD28">
         <v>3</v>
@@ -10729,7 +10729,7 @@
         <v>5</v>
       </c>
       <c r="AW28">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AX28">
         <v>1</v>
@@ -10882,7 +10882,7 @@
         <v>3</v>
       </c>
       <c r="CV28">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="CW28">
         <v>1</v>
@@ -11031,13 +11031,13 @@
         <v>5</v>
       </c>
       <c r="AA29">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AB29">
         <v>6</v>
       </c>
       <c r="AC29">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="AD29">
         <v>2</v>
@@ -11097,7 +11097,7 @@
         <v>2</v>
       </c>
       <c r="AW29">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AX29">
         <v>0</v>
@@ -11250,7 +11250,7 @@
         <v>2</v>
       </c>
       <c r="CV29">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="CW29">
         <v>1</v>
@@ -11399,13 +11399,13 @@
         <v>5</v>
       </c>
       <c r="AA30">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AB30">
         <v>4</v>
       </c>
       <c r="AC30">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="AD30">
         <v>2</v>
@@ -11767,7 +11767,7 @@
         <v>3</v>
       </c>
       <c r="AA31">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="AB31">
         <v>6</v>
@@ -11833,7 +11833,7 @@
         <v>4</v>
       </c>
       <c r="AW31">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AX31">
         <v>0</v>
@@ -11986,7 +11986,7 @@
         <v>1</v>
       </c>
       <c r="CV31">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="CW31">
         <v>1</v>
@@ -12135,7 +12135,7 @@
         <v>4</v>
       </c>
       <c r="AC32">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AD32">
         <v>5</v>
@@ -12348,7 +12348,7 @@
         <v>1</v>
       </c>
       <c r="CV32">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="CW32">
         <v>1</v>
@@ -12497,13 +12497,13 @@
         <v>5</v>
       </c>
       <c r="AA33">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AB33">
         <v>2</v>
       </c>
       <c r="AC33">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AD33">
         <v>2</v>
@@ -12563,7 +12563,7 @@
         <v>5</v>
       </c>
       <c r="AW33">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="AX33">
         <v>1</v>
@@ -12716,7 +12716,7 @@
         <v>1</v>
       </c>
       <c r="CV33">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="CW33">
         <v>1</v>
@@ -12862,13 +12862,13 @@
         <v>6</v>
       </c>
       <c r="AA34">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AB34">
         <v>4</v>
       </c>
       <c r="AC34">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AD34">
         <v>3</v>
@@ -13081,7 +13081,7 @@
         <v>5</v>
       </c>
       <c r="CV34">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="CW34">
         <v>1</v>
@@ -13296,7 +13296,7 @@
         <v>2</v>
       </c>
       <c r="AW35">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AX35">
         <v>1</v>
@@ -13449,7 +13449,7 @@
         <v>3</v>
       </c>
       <c r="CV35">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="CW35">
         <v>1</v>
@@ -13595,13 +13595,13 @@
         <v>7</v>
       </c>
       <c r="AA36">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AB36">
         <v>4</v>
       </c>
       <c r="AC36">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AD36">
         <v>1</v>
@@ -13808,7 +13808,7 @@
         <v>4</v>
       </c>
       <c r="CV36">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="CW36">
         <v>1</v>
@@ -13954,13 +13954,13 @@
         <v>5</v>
       </c>
       <c r="AA37">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AB37">
         <v>5</v>
       </c>
       <c r="AC37">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AD37">
         <v>2</v>
@@ -14173,7 +14173,7 @@
         <v>4</v>
       </c>
       <c r="CV37">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="CW37">
         <v>1</v>
@@ -14319,13 +14319,13 @@
         <v>4</v>
       </c>
       <c r="AA38">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AB38">
         <v>6</v>
       </c>
       <c r="AC38">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AD38">
         <v>5</v>
@@ -14379,7 +14379,7 @@
         <v>5</v>
       </c>
       <c r="AW38">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AX38">
         <v>0</v>
@@ -14532,7 +14532,7 @@
         <v>4</v>
       </c>
       <c r="CV38">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="CW38">
         <v>0</v>
@@ -14675,13 +14675,13 @@
         <v>3</v>
       </c>
       <c r="AA39">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AB39">
         <v>5</v>
       </c>
       <c r="AC39">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AD39">
         <v>2</v>
@@ -14741,7 +14741,7 @@
         <v>2</v>
       </c>
       <c r="AW39">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AX39">
         <v>1</v>
@@ -15043,13 +15043,13 @@
         <v>3</v>
       </c>
       <c r="AA40">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AB40">
         <v>5</v>
       </c>
       <c r="AC40">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AD40">
         <v>3</v>
@@ -15109,7 +15109,7 @@
         <v>5</v>
       </c>
       <c r="AW40">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AX40">
         <v>0</v>
@@ -15262,7 +15262,7 @@
         <v>2</v>
       </c>
       <c r="CV40">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="CW40">
         <v>0</v>
@@ -15411,13 +15411,13 @@
         <v>1</v>
       </c>
       <c r="AA41">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AB41">
         <v>2</v>
       </c>
       <c r="AC41">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AD41">
         <v>1</v>
@@ -15477,7 +15477,7 @@
         <v>6</v>
       </c>
       <c r="AW41">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AX41">
         <v>0</v>
@@ -15630,7 +15630,7 @@
         <v>2</v>
       </c>
       <c r="CV41">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="CW41">
         <v>1</v>
@@ -15776,13 +15776,13 @@
         <v>6</v>
       </c>
       <c r="AA42">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AB42">
         <v>3</v>
       </c>
       <c r="AC42">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AD42">
         <v>1</v>
@@ -15995,7 +15995,7 @@
         <v>4</v>
       </c>
       <c r="CV42">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="CW42">
         <v>1</v>
@@ -16150,7 +16150,7 @@
         <v>2</v>
       </c>
       <c r="AC43">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AD43">
         <v>1</v>
@@ -16512,13 +16512,13 @@
         <v>6</v>
       </c>
       <c r="AA44">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="AB44">
         <v>3</v>
       </c>
       <c r="AC44">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AD44">
         <v>1</v>
@@ -16578,7 +16578,7 @@
         <v>6</v>
       </c>
       <c r="AW44">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AX44">
         <v>1</v>
@@ -16731,7 +16731,7 @@
         <v>3</v>
       </c>
       <c r="CV44">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="CW44">
         <v>1</v>
@@ -16880,13 +16880,13 @@
         <v>5</v>
       </c>
       <c r="AA45">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AB45">
         <v>4</v>
       </c>
       <c r="AC45">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AD45">
         <v>2</v>
@@ -17248,13 +17248,13 @@
         <v>1</v>
       </c>
       <c r="AA46">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="AB46">
         <v>1</v>
       </c>
       <c r="AC46">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="AD46">
         <v>3</v>
@@ -17610,13 +17610,13 @@
         <v>2</v>
       </c>
       <c r="AA47">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AB47">
         <v>6</v>
       </c>
       <c r="AC47">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AD47">
         <v>3</v>
@@ -18343,13 +18343,13 @@
         <v>2</v>
       </c>
       <c r="AA49">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AB49">
         <v>3</v>
       </c>
       <c r="AC49">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AD49">
         <v>3</v>
@@ -18409,7 +18409,7 @@
         <v>6</v>
       </c>
       <c r="AW49">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AX49">
         <v>0</v>
@@ -18562,7 +18562,7 @@
         <v>4</v>
       </c>
       <c r="CV49">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="CW49">
         <v>1</v>
@@ -18711,13 +18711,13 @@
         <v>7</v>
       </c>
       <c r="AA50">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AB50">
         <v>3</v>
       </c>
       <c r="AC50">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AD50">
         <v>2</v>
@@ -18777,7 +18777,7 @@
         <v>3</v>
       </c>
       <c r="AW50">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AX50">
         <v>0</v>
@@ -18930,7 +18930,7 @@
         <v>3</v>
       </c>
       <c r="CV50">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="CW50">
         <v>1</v>
@@ -19082,7 +19082,7 @@
         <v>5</v>
       </c>
       <c r="AC51">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AD51">
         <v>2</v>
@@ -19142,7 +19142,7 @@
         <v>6</v>
       </c>
       <c r="AW51">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AX51">
         <v>0</v>
@@ -19441,7 +19441,7 @@
         <v>6</v>
       </c>
       <c r="AA52">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AB52">
         <v>5</v>
@@ -19507,7 +19507,7 @@
         <v>3</v>
       </c>
       <c r="AW52">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AX52">
         <v>0</v>
@@ -19660,7 +19660,7 @@
         <v>4</v>
       </c>
       <c r="CV52">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="CW52">
         <v>1</v>
@@ -19800,13 +19800,13 @@
         <v>7</v>
       </c>
       <c r="AA53">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="AB53">
         <v>4</v>
       </c>
       <c r="AC53">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="AD53">
         <v>1</v>
@@ -20168,7 +20168,7 @@
         <v>6</v>
       </c>
       <c r="AA54">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AB54">
         <v>3</v>
@@ -20542,7 +20542,7 @@
         <v>3</v>
       </c>
       <c r="AC55">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AD55">
         <v>1</v>
@@ -20602,7 +20602,7 @@
         <v>5</v>
       </c>
       <c r="AW55">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AX55">
         <v>0</v>
@@ -20904,13 +20904,13 @@
         <v>1</v>
       </c>
       <c r="AA56">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="AB56">
         <v>3</v>
       </c>
       <c r="AC56">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AD56">
         <v>2</v>
@@ -20970,7 +20970,7 @@
         <v>6</v>
       </c>
       <c r="AW56">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="AX56">
         <v>0</v>
@@ -21123,7 +21123,7 @@
         <v>4</v>
       </c>
       <c r="CV56">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="CW56">
         <v>1</v>
@@ -21338,7 +21338,7 @@
         <v>3</v>
       </c>
       <c r="AW57">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AX57">
         <v>0</v>
@@ -21491,7 +21491,7 @@
         <v>2</v>
       </c>
       <c r="CV57">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="CW57">
         <v>1</v>
@@ -21640,7 +21640,7 @@
         <v>6</v>
       </c>
       <c r="AA58">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AB58">
         <v>3</v>
@@ -21679,7 +21679,7 @@
         <v>3</v>
       </c>
       <c r="AW58">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AX58">
         <v>0</v>
@@ -21981,13 +21981,13 @@
         <v>5</v>
       </c>
       <c r="AA59">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AB59">
         <v>4</v>
       </c>
       <c r="AC59">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AD59">
         <v>5</v>
@@ -22047,7 +22047,7 @@
         <v>6</v>
       </c>
       <c r="AW59">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="AX59">
         <v>0</v>
@@ -22200,7 +22200,7 @@
         <v>2</v>
       </c>
       <c r="CV59">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="CW59">
         <v>1</v>
@@ -22349,13 +22349,13 @@
         <v>4</v>
       </c>
       <c r="AA60">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="AB60">
         <v>3</v>
       </c>
       <c r="AC60">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AD60">
         <v>2</v>
@@ -22415,7 +22415,7 @@
         <v>6</v>
       </c>
       <c r="AW60">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AX60">
         <v>0</v>
@@ -22568,7 +22568,7 @@
         <v>3</v>
       </c>
       <c r="CV60">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="CW60">
         <v>1</v>
@@ -22723,7 +22723,7 @@
         <v>4</v>
       </c>
       <c r="AC61">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AD61">
         <v>2</v>
@@ -22936,7 +22936,7 @@
         <v>2</v>
       </c>
       <c r="CV61">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="CW61">
         <v>1</v>
@@ -23079,13 +23079,13 @@
         <v>6</v>
       </c>
       <c r="AA62">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AB62">
         <v>6</v>
       </c>
       <c r="AC62">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AD62">
         <v>2</v>
@@ -23298,7 +23298,7 @@
         <v>4</v>
       </c>
       <c r="CV62">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="CW62">
         <v>1</v>
@@ -23447,13 +23447,13 @@
         <v>5</v>
       </c>
       <c r="AA63">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="AB63">
         <v>1</v>
       </c>
       <c r="AC63">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="AD63">
         <v>5</v>
@@ -23513,7 +23513,7 @@
         <v>6</v>
       </c>
       <c r="AW63">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AX63">
         <v>0</v>
@@ -23666,7 +23666,7 @@
         <v>3</v>
       </c>
       <c r="CV63">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="CW63">
         <v>1</v>
@@ -23815,13 +23815,13 @@
         <v>4</v>
       </c>
       <c r="AA64">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AB64">
         <v>4</v>
       </c>
       <c r="AC64">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AD64">
         <v>2</v>
@@ -24180,13 +24180,13 @@
         <v>6</v>
       </c>
       <c r="AA65">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AB65">
         <v>5</v>
       </c>
       <c r="AC65">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="AD65">
         <v>5</v>
@@ -24246,7 +24246,7 @@
         <v>2</v>
       </c>
       <c r="AW65">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AX65">
         <v>1</v>
@@ -24548,13 +24548,13 @@
         <v>6</v>
       </c>
       <c r="AA66">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="AB66">
         <v>6</v>
       </c>
       <c r="AC66">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AD66">
         <v>6</v>
@@ -24767,7 +24767,7 @@
         <v>4</v>
       </c>
       <c r="CV66">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="CW66">
         <v>1</v>
@@ -24916,13 +24916,13 @@
         <v>6</v>
       </c>
       <c r="AA67">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AB67">
         <v>6</v>
       </c>
       <c r="AC67">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AD67">
         <v>1</v>
@@ -24982,7 +24982,7 @@
         <v>6</v>
       </c>
       <c r="AW67">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AX67">
         <v>0</v>
@@ -25284,13 +25284,13 @@
         <v>6</v>
       </c>
       <c r="AA68">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AB68">
         <v>5</v>
       </c>
       <c r="AC68">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AD68">
         <v>3</v>
@@ -25350,7 +25350,7 @@
         <v>5</v>
       </c>
       <c r="AW68">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="AX68">
         <v>0</v>
@@ -25503,7 +25503,7 @@
         <v>4</v>
       </c>
       <c r="CV68">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="CW68">
         <v>1</v>
@@ -25649,13 +25649,13 @@
         <v>7</v>
       </c>
       <c r="AA69">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AB69">
         <v>5</v>
       </c>
       <c r="AC69">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AD69">
         <v>5</v>
@@ -25712,7 +25712,7 @@
         <v>6</v>
       </c>
       <c r="AW69">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="AX69">
         <v>1</v>
@@ -25865,7 +25865,7 @@
         <v>2</v>
       </c>
       <c r="CV69">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="CW69">
         <v>1</v>
@@ -26008,13 +26008,13 @@
         <v>4</v>
       </c>
       <c r="AA70">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AB70">
         <v>2</v>
       </c>
       <c r="AC70">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AD70">
         <v>2</v>
@@ -26074,7 +26074,7 @@
         <v>5</v>
       </c>
       <c r="AW70">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AX70">
         <v>1</v>
@@ -26227,7 +26227,7 @@
         <v>1</v>
       </c>
       <c r="CV70">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="CW70">
         <v>1</v>
@@ -26367,13 +26367,13 @@
         <v>6</v>
       </c>
       <c r="AA71">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AB71">
         <v>6</v>
       </c>
       <c r="AC71">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AD71">
         <v>3</v>
@@ -26586,7 +26586,7 @@
         <v>5</v>
       </c>
       <c r="CV71">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="CW71">
         <v>1</v>
@@ -26735,13 +26735,13 @@
         <v>5</v>
       </c>
       <c r="AA72">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AB72">
         <v>4</v>
       </c>
       <c r="AC72">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AD72">
         <v>2</v>
@@ -26954,7 +26954,7 @@
         <v>3</v>
       </c>
       <c r="CV72">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="CW72">
         <v>1</v>
